--- a/王者喵喵/数值.xlsx
+++ b/王者喵喵/数值.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="248">
   <si>
     <t>木头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -898,6 +898,14 @@
     <t>3级猫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>20级以下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-30级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1235,7 +1243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1437,6 +1445,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1469,6 +1478,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1850,11 +1860,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="460842152"/>
-        <c:axId val="461259976"/>
+        <c:axId val="198610104"/>
+        <c:axId val="198497072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="460842152"/>
+        <c:axId val="198610104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1896,7 +1906,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461259976"/>
+        <c:crossAx val="198497072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1904,7 +1914,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="461259976"/>
+        <c:axId val="198497072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,7 +1965,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460842152"/>
+        <c:crossAx val="198610104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2701,11 +2711,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="460115144"/>
-        <c:axId val="460115536"/>
+        <c:axId val="198873624"/>
+        <c:axId val="198970128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="460115144"/>
+        <c:axId val="198873624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2747,7 +2757,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460115536"/>
+        <c:crossAx val="198970128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2755,7 +2765,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460115536"/>
+        <c:axId val="198970128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2806,7 +2816,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460115144"/>
+        <c:crossAx val="198873624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2944,13 +2954,13 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
         <row r="3">
           <cell r="V3" t="str">
             <v>升级经验</v>
@@ -4260,13 +4270,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4649,8 +4659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:U93"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -32052,7 +32062,7 @@
   <dimension ref="B1:BK91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -32075,6 +32085,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:63" x14ac:dyDescent="0.35">
+      <c r="B1" s="56" t="s">
+        <v>246</v>
+      </c>
       <c r="D1" s="58" t="s">
         <v>129</v>
       </c>
@@ -32087,8 +32100,8 @@
       <c r="B2" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="56">
-        <f>SUM(F4:F17)</f>
+      <c r="F2" s="75">
+        <f>SUM(F4:F9)</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="G2" s="56">
@@ -32314,11 +32327,11 @@
         <v>361.6</v>
       </c>
       <c r="N4" s="58">
-        <f t="shared" ref="N4:W17" si="1">ROUND($M4/VLOOKUP(N$3,$L$42:$O$51,3,0),2)</f>
+        <f>ROUND($M4/VLOOKUP(N$3,$L$42:$O$91,3,0),2)</f>
         <v>361.6</v>
       </c>
       <c r="O4" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O4:BK9" si="1">ROUND($M4/VLOOKUP(O$3,$L$42:$O$91,3,0),2)</f>
         <v>180.8</v>
       </c>
       <c r="P4" s="58">
@@ -32353,165 +32366,165 @@
         <f t="shared" si="1"/>
         <v>0.71</v>
       </c>
-      <c r="X4" s="58" t="e">
-        <f t="shared" ref="X4:AG17" si="2">ROUND($M4/VLOOKUP(X$3,$L$42:$O$51,3,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Y4" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z4" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA4" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB4" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC4" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD4" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE4" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF4" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG4" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH4" s="58" t="e">
-        <f t="shared" ref="AH4:AQ17" si="3">ROUND($M4/VLOOKUP(AH$3,$L$42:$O$51,3,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AI4" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ4" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK4" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL4" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM4" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN4" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AO4" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AP4" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ4" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AR4" s="58" t="e">
-        <f t="shared" ref="AR4:BA17" si="4">ROUND($M4/VLOOKUP(AR$3,$L$42:$O$51,3,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AS4" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AT4" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AU4" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AV4" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AW4" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AX4" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AY4" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ4" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BA4" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BB4" s="58" t="e">
-        <f t="shared" ref="BB4:BK17" si="5">ROUND($M4/VLOOKUP(BB$3,$L$42:$O$51,3,0),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BC4" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BD4" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BE4" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BF4" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BG4" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BH4" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BI4" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BJ4" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BK4" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="X4" s="58">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+      <c r="Y4" s="58">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="Z4" s="58">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="AA4" s="58">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="AB4" s="58">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="AC4" s="58">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="AD4" s="58">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="AE4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BB4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BC4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BD4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BE4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BF4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BG4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BH4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BI4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BK4" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:63" x14ac:dyDescent="0.35">
@@ -32537,7 +32550,7 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="H5" s="58">
-        <f t="shared" ref="H5:H6" si="6">1*F5</f>
+        <f t="shared" ref="H5:H6" si="2">1*F5</f>
         <v>0.15</v>
       </c>
       <c r="K5" s="58">
@@ -32547,208 +32560,208 @@
         <v>31</v>
       </c>
       <c r="M5" s="59">
-        <f t="shared" ref="M5:M17" si="7">INDEX($K$24:$P$38,MATCH($K5,$K$24:$K$38,0),MATCH(M$3,$K$24:$P$24,0))</f>
+        <f t="shared" ref="M5:M17" si="3">INDEX($K$24:$P$38,MATCH($K5,$K$24:$K$38,0),MATCH(M$3,$K$24:$P$24,0))</f>
         <v>199.60000000000002</v>
       </c>
       <c r="N5" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N5:AC17" si="4">ROUND($M5/VLOOKUP(N$3,$L$42:$O$91,3,0),2)</f>
         <v>199.6</v>
       </c>
       <c r="O5" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>99.8</v>
       </c>
       <c r="P5" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>49.9</v>
       </c>
       <c r="Q5" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>24.95</v>
       </c>
       <c r="R5" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.48</v>
       </c>
       <c r="S5" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.24</v>
       </c>
       <c r="T5" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.12</v>
       </c>
       <c r="U5" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.56</v>
       </c>
       <c r="V5" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.78</v>
       </c>
       <c r="W5" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.39</v>
       </c>
-      <c r="X5" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y5" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z5" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA5" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB5" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC5" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD5" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE5" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF5" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG5" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH5" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI5" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ5" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK5" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL5" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM5" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN5" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AO5" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AP5" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ5" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AR5" s="58" t="e">
+      <c r="X5" s="58">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AS5" s="58" t="e">
+        <v>0.19</v>
+      </c>
+      <c r="Y5" s="58">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AT5" s="58" t="e">
+        <v>0.1</v>
+      </c>
+      <c r="Z5" s="58">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AU5" s="58" t="e">
+        <v>0.05</v>
+      </c>
+      <c r="AA5" s="58">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AV5" s="58" t="e">
+        <v>0.02</v>
+      </c>
+      <c r="AB5" s="58">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AW5" s="58" t="e">
+        <v>0.01</v>
+      </c>
+      <c r="AC5" s="58">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AX5" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AY5" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ5" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BA5" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BB5" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BC5" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BD5" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BE5" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BF5" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BG5" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BH5" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BI5" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BJ5" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BK5" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>0.01</v>
+      </c>
+      <c r="AD5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BB5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BC5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BD5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BE5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BF5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BG5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BH5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BI5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BK5" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:63" x14ac:dyDescent="0.35">
@@ -32759,7 +32772,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="58">
-        <f t="shared" ref="D6:D7" si="8">D5*2</f>
+        <f t="shared" ref="D6:D7" si="5">D5*2</f>
         <v>12000</v>
       </c>
       <c r="E6" s="58">
@@ -32774,7 +32787,7 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="H6" s="58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="K6" s="58">
@@ -32784,19 +32797,19 @@
         <v>34</v>
       </c>
       <c r="M6" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>205.60000000000002</v>
       </c>
       <c r="N6" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>205.6</v>
       </c>
       <c r="O6" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>102.8</v>
       </c>
       <c r="P6" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>51.4</v>
       </c>
       <c r="Q6" s="58">
@@ -32827,165 +32840,165 @@
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="X6" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y6" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z6" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA6" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB6" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC6" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD6" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE6" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF6" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG6" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH6" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI6" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ6" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK6" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL6" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM6" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN6" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AO6" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AP6" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ6" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AR6" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AS6" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AT6" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AU6" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AV6" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AW6" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AX6" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AY6" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ6" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BA6" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BB6" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BC6" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BD6" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BE6" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BF6" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BG6" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BH6" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BI6" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BJ6" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BK6" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="X6" s="58">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="Y6" s="58">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="Z6" s="58">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="AA6" s="58">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="AB6" s="58">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="AC6" s="58">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="AD6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BB6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BC6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BD6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BE6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BF6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BG6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BH6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BI6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BK6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:63" x14ac:dyDescent="0.35">
@@ -32996,7 +33009,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>24000</v>
       </c>
       <c r="E7" s="58">
@@ -33021,19 +33034,19 @@
         <v>36</v>
       </c>
       <c r="M7" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>211.60000000000002</v>
       </c>
       <c r="N7" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>211.6</v>
       </c>
       <c r="O7" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>105.8</v>
       </c>
       <c r="P7" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>52.9</v>
       </c>
       <c r="Q7" s="58">
@@ -33064,165 +33077,165 @@
         <f t="shared" si="1"/>
         <v>0.41</v>
       </c>
-      <c r="X7" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y7" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z7" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA7" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB7" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC7" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD7" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE7" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF7" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG7" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH7" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI7" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ7" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK7" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL7" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM7" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN7" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AO7" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AP7" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ7" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AR7" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AS7" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AT7" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AU7" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AV7" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AW7" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AX7" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AY7" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ7" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BA7" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BB7" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BC7" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BD7" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BE7" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BF7" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BG7" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BH7" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BI7" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BJ7" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BK7" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="X7" s="58">
+        <f t="shared" si="1"/>
+        <v>0.21</v>
+      </c>
+      <c r="Y7" s="58">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="Z7" s="58">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="AA7" s="58">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="AB7" s="58">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="AC7" s="58">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="AD7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BB7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BC7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BD7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BE7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BF7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BG7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BH7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BI7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BK7" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:63" x14ac:dyDescent="0.35">
@@ -33257,19 +33270,19 @@
         <v>39</v>
       </c>
       <c r="M8" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>233.60000000000002</v>
       </c>
       <c r="N8" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>233.6</v>
       </c>
       <c r="O8" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>116.8</v>
       </c>
       <c r="P8" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>58.4</v>
       </c>
       <c r="Q8" s="58">
@@ -33300,165 +33313,165 @@
         <f t="shared" si="1"/>
         <v>0.46</v>
       </c>
-      <c r="X8" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y8" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z8" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA8" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB8" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC8" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD8" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE8" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF8" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG8" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH8" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI8" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ8" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK8" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL8" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM8" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN8" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AO8" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AP8" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ8" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AR8" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AS8" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AT8" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AU8" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AV8" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AW8" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AX8" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AY8" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ8" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BA8" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BB8" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BC8" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BD8" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BE8" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BF8" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BG8" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BH8" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BI8" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BJ8" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BK8" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="X8" s="58">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="Y8" s="58">
+        <f t="shared" si="1"/>
+        <v>0.11</v>
+      </c>
+      <c r="Z8" s="58">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="AA8" s="58">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="AB8" s="58">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="AC8" s="58">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="AD8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BB8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BC8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BD8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BE8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BF8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BG8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BH8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BI8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BK8" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:63" x14ac:dyDescent="0.35">
@@ -33483,7 +33496,7 @@
         <v>0.2</v>
       </c>
       <c r="H9" s="58">
-        <f t="shared" ref="H9" si="9">D9*F9</f>
+        <f t="shared" ref="H9" si="6">D9*F9</f>
         <v>0.1</v>
       </c>
       <c r="K9" s="58">
@@ -33493,208 +33506,208 @@
         <v>41</v>
       </c>
       <c r="M9" s="59">
+        <f t="shared" si="3"/>
+        <v>239.60000000000002</v>
+      </c>
+      <c r="N9" s="58">
+        <f t="shared" si="4"/>
+        <v>239.6</v>
+      </c>
+      <c r="O9" s="58">
+        <f t="shared" si="4"/>
+        <v>119.8</v>
+      </c>
+      <c r="P9" s="58">
+        <f t="shared" si="4"/>
+        <v>59.9</v>
+      </c>
+      <c r="Q9" s="58">
+        <f t="shared" si="1"/>
+        <v>29.95</v>
+      </c>
+      <c r="R9" s="58">
+        <f t="shared" si="1"/>
+        <v>14.98</v>
+      </c>
+      <c r="S9" s="58">
+        <f t="shared" si="1"/>
+        <v>7.49</v>
+      </c>
+      <c r="T9" s="58">
+        <f t="shared" si="1"/>
+        <v>3.74</v>
+      </c>
+      <c r="U9" s="58">
+        <f t="shared" si="1"/>
+        <v>1.87</v>
+      </c>
+      <c r="V9" s="58">
+        <f t="shared" si="1"/>
+        <v>0.94</v>
+      </c>
+      <c r="W9" s="58">
+        <f t="shared" si="1"/>
+        <v>0.47</v>
+      </c>
+      <c r="X9" s="58">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="Y9" s="58">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="Z9" s="58">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="AA9" s="58">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="AB9" s="58">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="AC9" s="58">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="AD9" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR9" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS9" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT9" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU9" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV9" s="58">
+        <f t="shared" ref="Q9:BK15" si="7">ROUND($M9/VLOOKUP(AV$3,$L$42:$O$91,3,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="AW9" s="58">
         <f t="shared" si="7"/>
-        <v>239.60000000000002</v>
-      </c>
-      <c r="N9" s="58">
-        <f t="shared" si="1"/>
-        <v>239.6</v>
-      </c>
-      <c r="O9" s="58">
-        <f t="shared" si="1"/>
-        <v>119.8</v>
-      </c>
-      <c r="P9" s="58">
-        <f t="shared" si="1"/>
-        <v>59.9</v>
-      </c>
-      <c r="Q9" s="58">
-        <f t="shared" si="1"/>
-        <v>29.95</v>
-      </c>
-      <c r="R9" s="58">
-        <f t="shared" si="1"/>
-        <v>14.98</v>
-      </c>
-      <c r="S9" s="58">
-        <f t="shared" si="1"/>
-        <v>7.49</v>
-      </c>
-      <c r="T9" s="58">
-        <f t="shared" si="1"/>
-        <v>3.74</v>
-      </c>
-      <c r="U9" s="58">
-        <f t="shared" si="1"/>
-        <v>1.87</v>
-      </c>
-      <c r="V9" s="58">
-        <f t="shared" si="1"/>
-        <v>0.94</v>
-      </c>
-      <c r="W9" s="58">
-        <f t="shared" si="1"/>
-        <v>0.47</v>
-      </c>
-      <c r="X9" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y9" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z9" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA9" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB9" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC9" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD9" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE9" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF9" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG9" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH9" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI9" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ9" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK9" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL9" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM9" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN9" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AO9" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AP9" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ9" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AR9" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AS9" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AT9" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AU9" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AV9" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AW9" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AX9" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AY9" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ9" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BA9" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BB9" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BC9" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BD9" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BE9" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BF9" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BG9" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BH9" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BI9" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BJ9" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BK9" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>0</v>
+      </c>
+      <c r="AX9" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AY9" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BA9" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BB9" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BC9" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD9" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BE9" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BF9" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG9" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BH9" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BI9" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BK9" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:63" x14ac:dyDescent="0.35">
@@ -33705,208 +33718,208 @@
         <v>43</v>
       </c>
       <c r="M10" s="59">
+        <f t="shared" si="3"/>
+        <v>253.60000000000002</v>
+      </c>
+      <c r="N10" s="58">
+        <f t="shared" si="4"/>
+        <v>253.6</v>
+      </c>
+      <c r="O10" s="58">
+        <f t="shared" si="4"/>
+        <v>126.8</v>
+      </c>
+      <c r="P10" s="58">
+        <f t="shared" si="4"/>
+        <v>63.4</v>
+      </c>
+      <c r="Q10" s="58">
         <f t="shared" si="7"/>
-        <v>253.60000000000002</v>
-      </c>
-      <c r="N10" s="58">
-        <f t="shared" si="1"/>
-        <v>253.6</v>
-      </c>
-      <c r="O10" s="58">
-        <f t="shared" si="1"/>
-        <v>126.8</v>
-      </c>
-      <c r="P10" s="58">
-        <f t="shared" si="1"/>
-        <v>63.4</v>
-      </c>
-      <c r="Q10" s="58">
-        <f t="shared" si="1"/>
         <v>31.7</v>
       </c>
       <c r="R10" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>15.85</v>
       </c>
       <c r="S10" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>7.93</v>
       </c>
       <c r="T10" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.96</v>
       </c>
       <c r="U10" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.98</v>
       </c>
       <c r="V10" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.99</v>
       </c>
       <c r="W10" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="X10" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y10" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z10" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA10" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB10" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC10" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD10" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE10" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF10" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG10" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH10" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI10" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ10" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK10" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL10" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM10" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN10" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AO10" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AP10" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ10" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AR10" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AS10" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AT10" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AU10" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AV10" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AW10" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AX10" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AY10" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ10" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BA10" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BB10" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BC10" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BD10" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BE10" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BF10" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BG10" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BH10" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BI10" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BJ10" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BK10" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="X10" s="58">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="Y10" s="58">
+        <f t="shared" si="7"/>
+        <v>0.12</v>
+      </c>
+      <c r="Z10" s="58">
+        <f t="shared" si="7"/>
+        <v>0.06</v>
+      </c>
+      <c r="AA10" s="58">
+        <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
+      <c r="AB10" s="58">
+        <f t="shared" si="7"/>
+        <v>0.02</v>
+      </c>
+      <c r="AC10" s="58">
+        <f t="shared" si="7"/>
+        <v>0.01</v>
+      </c>
+      <c r="AD10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AR10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AS10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AT10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AU10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AV10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AW10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AX10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AY10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BA10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BB10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BC10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BE10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BF10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BH10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BI10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BK10" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:63" x14ac:dyDescent="0.35">
@@ -33926,208 +33939,208 @@
         <v>47</v>
       </c>
       <c r="M11" s="59">
+        <f t="shared" si="3"/>
+        <v>786.80000000000007</v>
+      </c>
+      <c r="N11" s="58">
+        <f t="shared" si="4"/>
+        <v>786.8</v>
+      </c>
+      <c r="O11" s="58">
+        <f t="shared" si="4"/>
+        <v>393.4</v>
+      </c>
+      <c r="P11" s="58">
+        <f t="shared" si="4"/>
+        <v>196.7</v>
+      </c>
+      <c r="Q11" s="58">
         <f t="shared" si="7"/>
-        <v>786.80000000000007</v>
-      </c>
-      <c r="N11" s="58">
-        <f t="shared" si="1"/>
-        <v>786.8</v>
-      </c>
-      <c r="O11" s="58">
-        <f t="shared" si="1"/>
-        <v>393.4</v>
-      </c>
-      <c r="P11" s="58">
-        <f t="shared" si="1"/>
-        <v>196.7</v>
-      </c>
-      <c r="Q11" s="58">
-        <f t="shared" si="1"/>
         <v>98.35</v>
       </c>
       <c r="R11" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>49.18</v>
       </c>
       <c r="S11" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>24.59</v>
       </c>
       <c r="T11" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>12.29</v>
       </c>
       <c r="U11" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6.15</v>
       </c>
       <c r="V11" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.07</v>
       </c>
       <c r="W11" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.54</v>
       </c>
-      <c r="X11" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y11" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z11" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA11" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB11" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC11" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD11" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE11" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF11" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG11" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH11" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI11" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ11" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK11" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL11" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM11" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN11" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AO11" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AP11" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ11" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AR11" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AS11" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AT11" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AU11" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AV11" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AW11" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AX11" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AY11" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ11" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BA11" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BB11" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BC11" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BD11" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BE11" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BF11" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BG11" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BH11" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BI11" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BJ11" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BK11" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="X11" s="58">
+        <f t="shared" si="7"/>
+        <v>0.77</v>
+      </c>
+      <c r="Y11" s="58">
+        <f t="shared" si="7"/>
+        <v>0.38</v>
+      </c>
+      <c r="Z11" s="58">
+        <f t="shared" si="7"/>
+        <v>0.19</v>
+      </c>
+      <c r="AA11" s="58">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="AB11" s="58">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="AC11" s="58">
+        <f t="shared" si="7"/>
+        <v>0.02</v>
+      </c>
+      <c r="AD11" s="58">
+        <f t="shared" si="7"/>
+        <v>0.01</v>
+      </c>
+      <c r="AE11" s="58">
+        <f t="shared" si="7"/>
+        <v>0.01</v>
+      </c>
+      <c r="AF11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AR11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AS11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AT11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AU11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AV11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AW11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AX11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AY11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BA11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BB11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BC11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BE11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BF11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BH11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BI11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BK11" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:63" x14ac:dyDescent="0.35">
@@ -34149,208 +34162,208 @@
         <v>53</v>
       </c>
       <c r="M12" s="59">
+        <f t="shared" si="3"/>
+        <v>1396</v>
+      </c>
+      <c r="N12" s="58">
+        <f t="shared" si="4"/>
+        <v>1396</v>
+      </c>
+      <c r="O12" s="58">
+        <f t="shared" si="4"/>
+        <v>698</v>
+      </c>
+      <c r="P12" s="58">
+        <f t="shared" si="4"/>
+        <v>349</v>
+      </c>
+      <c r="Q12" s="58">
         <f t="shared" si="7"/>
-        <v>1396</v>
-      </c>
-      <c r="N12" s="58">
-        <f t="shared" si="1"/>
-        <v>1396</v>
-      </c>
-      <c r="O12" s="58">
-        <f t="shared" si="1"/>
-        <v>698</v>
-      </c>
-      <c r="P12" s="58">
-        <f t="shared" si="1"/>
-        <v>349</v>
-      </c>
-      <c r="Q12" s="58">
-        <f t="shared" si="1"/>
         <v>174.5</v>
       </c>
       <c r="R12" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>87.25</v>
       </c>
       <c r="S12" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>43.63</v>
       </c>
       <c r="T12" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>21.81</v>
       </c>
       <c r="U12" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>10.91</v>
       </c>
       <c r="V12" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5.45</v>
       </c>
       <c r="W12" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2.73</v>
       </c>
-      <c r="X12" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y12" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z12" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA12" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB12" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC12" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD12" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE12" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF12" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG12" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH12" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI12" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ12" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK12" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL12" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM12" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN12" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AO12" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AP12" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ12" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AR12" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AS12" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AT12" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AU12" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AV12" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AW12" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AX12" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AY12" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ12" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BA12" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BB12" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BC12" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BD12" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BE12" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BF12" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BG12" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BH12" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BI12" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BJ12" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BK12" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="X12" s="58">
+        <f t="shared" si="7"/>
+        <v>1.36</v>
+      </c>
+      <c r="Y12" s="58">
+        <f t="shared" si="7"/>
+        <v>0.68</v>
+      </c>
+      <c r="Z12" s="58">
+        <f t="shared" si="7"/>
+        <v>0.34</v>
+      </c>
+      <c r="AA12" s="58">
+        <f t="shared" si="7"/>
+        <v>0.17</v>
+      </c>
+      <c r="AB12" s="58">
+        <f t="shared" si="7"/>
+        <v>0.09</v>
+      </c>
+      <c r="AC12" s="58">
+        <f t="shared" si="7"/>
+        <v>0.04</v>
+      </c>
+      <c r="AD12" s="58">
+        <f t="shared" si="7"/>
+        <v>0.02</v>
+      </c>
+      <c r="AE12" s="58">
+        <f t="shared" si="7"/>
+        <v>0.01</v>
+      </c>
+      <c r="AF12" s="58">
+        <f t="shared" si="7"/>
+        <v>0.01</v>
+      </c>
+      <c r="AG12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AR12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AS12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AT12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AV12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AW12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AX12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AY12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BA12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BB12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BC12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BE12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BF12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BH12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BI12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BK12" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:63" x14ac:dyDescent="0.35">
@@ -34372,208 +34385,208 @@
         <v>64</v>
       </c>
       <c r="M13" s="59">
+        <f t="shared" si="3"/>
+        <v>4462</v>
+      </c>
+      <c r="N13" s="58">
+        <f t="shared" si="4"/>
+        <v>4462</v>
+      </c>
+      <c r="O13" s="58">
+        <f t="shared" si="4"/>
+        <v>2231</v>
+      </c>
+      <c r="P13" s="58">
+        <f t="shared" si="4"/>
+        <v>1115.5</v>
+      </c>
+      <c r="Q13" s="58">
         <f t="shared" si="7"/>
-        <v>4462</v>
-      </c>
-      <c r="N13" s="58">
-        <f t="shared" si="1"/>
-        <v>4462</v>
-      </c>
-      <c r="O13" s="58">
-        <f t="shared" si="1"/>
-        <v>2231</v>
-      </c>
-      <c r="P13" s="58">
-        <f t="shared" si="1"/>
-        <v>1115.5</v>
-      </c>
-      <c r="Q13" s="58">
-        <f t="shared" si="1"/>
         <v>557.75</v>
       </c>
       <c r="R13" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>278.88</v>
       </c>
       <c r="S13" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>139.44</v>
       </c>
       <c r="T13" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>69.72</v>
       </c>
       <c r="U13" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>34.86</v>
       </c>
       <c r="V13" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>17.43</v>
       </c>
       <c r="W13" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>8.7100000000000009</v>
       </c>
-      <c r="X13" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y13" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z13" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA13" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB13" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC13" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD13" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE13" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF13" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG13" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH13" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI13" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ13" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK13" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL13" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM13" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN13" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AO13" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AP13" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ13" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AR13" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AS13" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AT13" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AU13" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AV13" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AW13" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AX13" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AY13" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ13" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BA13" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BB13" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BC13" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BD13" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BE13" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BF13" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BG13" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BH13" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BI13" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BJ13" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BK13" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="X13" s="58">
+        <f t="shared" si="7"/>
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="Y13" s="58">
+        <f t="shared" si="7"/>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="Z13" s="58">
+        <f t="shared" si="7"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AA13" s="58">
+        <f t="shared" si="7"/>
+        <v>0.54</v>
+      </c>
+      <c r="AB13" s="58">
+        <f t="shared" si="7"/>
+        <v>0.27</v>
+      </c>
+      <c r="AC13" s="58">
+        <f t="shared" si="7"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AD13" s="58">
+        <f t="shared" si="7"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AE13" s="58">
+        <f t="shared" si="7"/>
+        <v>0.03</v>
+      </c>
+      <c r="AF13" s="58">
+        <f t="shared" si="7"/>
+        <v>0.02</v>
+      </c>
+      <c r="AG13" s="58">
+        <f t="shared" si="7"/>
+        <v>0.01</v>
+      </c>
+      <c r="AH13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AR13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AS13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AT13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AU13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AV13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AW13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AX13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AY13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BA13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BB13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BC13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BE13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BF13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BH13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BI13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BK13" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:63" x14ac:dyDescent="0.35">
@@ -34595,208 +34608,208 @@
         <v>76</v>
       </c>
       <c r="M14" s="59">
+        <f t="shared" si="3"/>
+        <v>9264</v>
+      </c>
+      <c r="N14" s="58">
+        <f t="shared" si="4"/>
+        <v>9264</v>
+      </c>
+      <c r="O14" s="58">
+        <f t="shared" si="4"/>
+        <v>4632</v>
+      </c>
+      <c r="P14" s="58">
+        <f t="shared" si="4"/>
+        <v>2316</v>
+      </c>
+      <c r="Q14" s="58">
         <f t="shared" si="7"/>
-        <v>9264</v>
-      </c>
-      <c r="N14" s="58">
-        <f t="shared" si="1"/>
-        <v>9264</v>
-      </c>
-      <c r="O14" s="58">
-        <f t="shared" si="1"/>
-        <v>4632</v>
-      </c>
-      <c r="P14" s="58">
-        <f t="shared" si="1"/>
-        <v>2316</v>
-      </c>
-      <c r="Q14" s="58">
-        <f t="shared" si="1"/>
         <v>1158</v>
       </c>
       <c r="R14" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>579</v>
       </c>
       <c r="S14" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>289.5</v>
       </c>
       <c r="T14" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>144.75</v>
       </c>
       <c r="U14" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>72.38</v>
       </c>
       <c r="V14" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>36.19</v>
       </c>
       <c r="W14" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>18.09</v>
       </c>
-      <c r="X14" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y14" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z14" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA14" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB14" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC14" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD14" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE14" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF14" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG14" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH14" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI14" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ14" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK14" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL14" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM14" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN14" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AO14" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AP14" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ14" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AR14" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AS14" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AT14" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AU14" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AV14" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AW14" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AX14" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AY14" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ14" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BA14" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BB14" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BC14" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BD14" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BE14" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BF14" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BG14" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BH14" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BI14" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BJ14" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BK14" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="X14" s="58">
+        <f t="shared" si="7"/>
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="Y14" s="58">
+        <f t="shared" si="7"/>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="Z14" s="58">
+        <f t="shared" si="7"/>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AA14" s="58">
+        <f t="shared" si="7"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AB14" s="58">
+        <f t="shared" si="7"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AC14" s="58">
+        <f t="shared" si="7"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AD14" s="58">
+        <f t="shared" si="7"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AE14" s="58">
+        <f t="shared" si="7"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AF14" s="58">
+        <f t="shared" si="7"/>
+        <v>0.04</v>
+      </c>
+      <c r="AG14" s="58">
+        <f t="shared" si="7"/>
+        <v>0.02</v>
+      </c>
+      <c r="AH14" s="58">
+        <f t="shared" si="7"/>
+        <v>0.01</v>
+      </c>
+      <c r="AI14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AR14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AS14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AT14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AU14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AV14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AW14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AX14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AY14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BA14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BB14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BC14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BD14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BE14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BF14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BG14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BH14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BI14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BK14" s="58">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:63" x14ac:dyDescent="0.35">
@@ -34807,208 +34820,208 @@
         <v>84</v>
       </c>
       <c r="M15" s="59">
+        <f t="shared" si="3"/>
+        <v>9532</v>
+      </c>
+      <c r="N15" s="58">
+        <f t="shared" si="4"/>
+        <v>9532</v>
+      </c>
+      <c r="O15" s="58">
+        <f t="shared" si="4"/>
+        <v>4766</v>
+      </c>
+      <c r="P15" s="58">
+        <f t="shared" si="4"/>
+        <v>2383</v>
+      </c>
+      <c r="Q15" s="58">
         <f t="shared" si="7"/>
-        <v>9532</v>
-      </c>
-      <c r="N15" s="58">
-        <f t="shared" si="1"/>
-        <v>9532</v>
-      </c>
-      <c r="O15" s="58">
-        <f t="shared" si="1"/>
-        <v>4766</v>
-      </c>
-      <c r="P15" s="58">
-        <f t="shared" si="1"/>
-        <v>2383</v>
-      </c>
-      <c r="Q15" s="58">
-        <f t="shared" si="1"/>
         <v>1191.5</v>
       </c>
       <c r="R15" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>595.75</v>
       </c>
       <c r="S15" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>297.88</v>
       </c>
       <c r="T15" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>148.94</v>
       </c>
       <c r="U15" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q15:BK17" si="8">ROUND($M15/VLOOKUP(U$3,$L$42:$O$91,3,0),2)</f>
         <v>74.47</v>
       </c>
       <c r="V15" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>37.229999999999997</v>
       </c>
       <c r="W15" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>18.62</v>
       </c>
-      <c r="X15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG15" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH15" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI15" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ15" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK15" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL15" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM15" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN15" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AO15" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AP15" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ15" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AR15" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AS15" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AT15" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AU15" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AV15" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AW15" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AX15" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AY15" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ15" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BA15" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BB15" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BC15" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BD15" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BE15" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BF15" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BG15" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BH15" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BI15" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BJ15" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BK15" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="X15" s="58">
+        <f t="shared" si="8"/>
+        <v>9.31</v>
+      </c>
+      <c r="Y15" s="58">
+        <f t="shared" si="8"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="Z15" s="58">
+        <f t="shared" si="8"/>
+        <v>2.33</v>
+      </c>
+      <c r="AA15" s="58">
+        <f t="shared" si="8"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AB15" s="58">
+        <f t="shared" si="8"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AC15" s="58">
+        <f t="shared" si="8"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AD15" s="58">
+        <f t="shared" si="8"/>
+        <v>0.15</v>
+      </c>
+      <c r="AE15" s="58">
+        <f t="shared" si="8"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AF15" s="58">
+        <f t="shared" si="8"/>
+        <v>0.04</v>
+      </c>
+      <c r="AG15" s="58">
+        <f t="shared" si="8"/>
+        <v>0.02</v>
+      </c>
+      <c r="AH15" s="58">
+        <f t="shared" si="8"/>
+        <v>0.01</v>
+      </c>
+      <c r="AI15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AS15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AT15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AU15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AV15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AX15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AY15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BA15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BB15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BC15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BD15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BF15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BI15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BK15" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:63" x14ac:dyDescent="0.35">
@@ -35019,211 +35032,218 @@
         <v>90</v>
       </c>
       <c r="M16" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>9816</v>
       </c>
       <c r="N16" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9816</v>
       </c>
       <c r="O16" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4908</v>
       </c>
       <c r="P16" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2454</v>
       </c>
       <c r="Q16" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1227</v>
       </c>
       <c r="R16" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>613.5</v>
       </c>
       <c r="S16" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>306.75</v>
       </c>
       <c r="T16" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>153.38</v>
       </c>
       <c r="U16" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>76.69</v>
       </c>
       <c r="V16" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>38.340000000000003</v>
       </c>
       <c r="W16" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19.170000000000002</v>
       </c>
-      <c r="X16" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y16" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z16" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA16" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB16" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC16" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD16" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE16" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF16" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG16" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH16" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI16" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ16" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK16" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL16" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM16" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN16" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AO16" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AP16" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ16" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AR16" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AS16" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AT16" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AU16" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AV16" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AW16" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AX16" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AY16" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ16" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BA16" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BB16" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BC16" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BD16" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BE16" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BF16" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BG16" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BH16" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BI16" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BJ16" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BK16" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="X16" s="58">
+        <f t="shared" si="8"/>
+        <v>9.59</v>
+      </c>
+      <c r="Y16" s="58">
+        <f t="shared" si="8"/>
+        <v>4.79</v>
+      </c>
+      <c r="Z16" s="58">
+        <f t="shared" si="8"/>
+        <v>2.4</v>
+      </c>
+      <c r="AA16" s="58">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+      <c r="AB16" s="58">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="AC16" s="58">
+        <f t="shared" si="8"/>
+        <v>0.3</v>
+      </c>
+      <c r="AD16" s="58">
+        <f t="shared" si="8"/>
+        <v>0.15</v>
+      </c>
+      <c r="AE16" s="58">
+        <f t="shared" si="8"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AF16" s="58">
+        <f t="shared" si="8"/>
+        <v>0.04</v>
+      </c>
+      <c r="AG16" s="58">
+        <f t="shared" si="8"/>
+        <v>0.02</v>
+      </c>
+      <c r="AH16" s="58">
+        <f t="shared" si="8"/>
+        <v>0.01</v>
+      </c>
+      <c r="AI16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AS16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AT16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AU16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AV16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AX16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AY16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BA16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BB16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BC16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BD16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BF16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BI16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BK16" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:63" x14ac:dyDescent="0.35">
+      <c r="B17" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" s="75">
+        <f>SUM(F19:F24)</f>
+        <v>0.99999999999999989</v>
+      </c>
       <c r="K17" s="58">
         <v>180</v>
       </c>
@@ -35231,208 +35251,208 @@
         <v>99</v>
       </c>
       <c r="M17" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>20208</v>
       </c>
       <c r="N17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>20208</v>
       </c>
       <c r="O17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10104</v>
       </c>
       <c r="P17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5052</v>
       </c>
       <c r="Q17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>2526</v>
       </c>
       <c r="R17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>1263</v>
       </c>
       <c r="S17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>631.5</v>
       </c>
       <c r="T17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>315.75</v>
       </c>
       <c r="U17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>157.88</v>
       </c>
       <c r="V17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>78.94</v>
       </c>
       <c r="W17" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>39.47</v>
       </c>
-      <c r="X17" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y17" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z17" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA17" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB17" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC17" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD17" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE17" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF17" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG17" s="58" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH17" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI17" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ17" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK17" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL17" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM17" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AN17" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AO17" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AP17" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ17" s="58" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AR17" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AS17" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AT17" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AU17" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AV17" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AW17" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AX17" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AY17" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ17" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BA17" s="58" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BB17" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BC17" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BD17" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BE17" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BF17" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BG17" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BH17" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BI17" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BJ17" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="BK17" s="58" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="X17" s="58">
+        <f t="shared" si="8"/>
+        <v>19.73</v>
+      </c>
+      <c r="Y17" s="58">
+        <f t="shared" si="8"/>
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="Z17" s="58">
+        <f t="shared" si="8"/>
+        <v>4.93</v>
+      </c>
+      <c r="AA17" s="58">
+        <f t="shared" si="8"/>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="AB17" s="58">
+        <f t="shared" si="8"/>
+        <v>1.23</v>
+      </c>
+      <c r="AC17" s="58">
+        <f t="shared" si="8"/>
+        <v>0.62</v>
+      </c>
+      <c r="AD17" s="58">
+        <f t="shared" si="8"/>
+        <v>0.31</v>
+      </c>
+      <c r="AE17" s="58">
+        <f t="shared" si="8"/>
+        <v>0.15</v>
+      </c>
+      <c r="AF17" s="58">
+        <f t="shared" si="8"/>
+        <v>0.08</v>
+      </c>
+      <c r="AG17" s="58">
+        <f t="shared" si="8"/>
+        <v>0.04</v>
+      </c>
+      <c r="AH17" s="58">
+        <f t="shared" si="8"/>
+        <v>0.02</v>
+      </c>
+      <c r="AI17" s="58">
+        <f t="shared" si="8"/>
+        <v>0.01</v>
+      </c>
+      <c r="AJ17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AS17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AT17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AV17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AX17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AY17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BA17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BB17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BC17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BD17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BF17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BH17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BI17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BK17" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:63" x14ac:dyDescent="0.35">
@@ -35469,18 +35489,18 @@
         <v>1</v>
       </c>
       <c r="D19" s="58">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E19" s="58">
         <f>D19*VLOOKUP($C19,物品定价!$B:$D,3,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="60">
         <v>0.2</v>
       </c>
       <c r="G19" s="58">
-        <f t="shared" ref="G19:G21" si="10">E19*F19</f>
-        <v>0.60000000000000009</v>
+        <f t="shared" ref="G19:G21" si="9">E19*F19</f>
+        <v>0.8</v>
       </c>
       <c r="H19" s="58">
         <f>1*F19</f>
@@ -35497,21 +35517,21 @@
       </c>
       <c r="D20" s="58">
         <f>D19*2</f>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="E20" s="58">
         <f>D20*VLOOKUP($C20,物品定价!$B:$D,3,0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F20" s="60">
         <v>0.15</v>
       </c>
       <c r="G20" s="58">
-        <f t="shared" si="10"/>
-        <v>0.89999999999999991</v>
+        <f t="shared" si="9"/>
+        <v>1.2</v>
       </c>
       <c r="H20" s="58">
-        <f t="shared" ref="H20:H21" si="11">1*F20</f>
+        <f t="shared" ref="H20:H21" si="10">1*F20</f>
         <v>0.15</v>
       </c>
       <c r="M20" s="56"/>
@@ -35524,22 +35544,22 @@
         <v>1</v>
       </c>
       <c r="D21" s="58">
-        <f t="shared" ref="D21:D22" si="12">D20*2</f>
-        <v>12000</v>
+        <f t="shared" ref="D21:D22" si="11">D20*2</f>
+        <v>16000</v>
       </c>
       <c r="E21" s="58">
         <f>D21*VLOOKUP($C21,物品定价!$B:$D,3,0)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F21" s="60">
         <v>0.1</v>
       </c>
       <c r="G21" s="58">
+        <f t="shared" si="9"/>
+        <v>1.6</v>
+      </c>
+      <c r="H21" s="58">
         <f t="shared" si="10"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="H21" s="58">
-        <f t="shared" si="11"/>
         <v>0.1</v>
       </c>
       <c r="M21" s="56"/>
@@ -35549,26 +35569,25 @@
         <v>4</v>
       </c>
       <c r="C22" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="58">
         <v>1</v>
-      </c>
-      <c r="D22" s="58">
-        <f t="shared" si="12"/>
-        <v>24000</v>
       </c>
       <c r="E22" s="58">
         <f>D22*VLOOKUP($C22,物品定价!$B:$D,3,0)</f>
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F22" s="60">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="G22" s="58">
         <f>E22*F22</f>
-        <v>1.2000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="H22" s="58">
         <f>1*F22</f>
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="M22" s="56"/>
     </row>
@@ -35587,15 +35606,15 @@
         <v>2</v>
       </c>
       <c r="F23" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="G23" s="58">
+        <f t="shared" ref="G23:G24" si="12">E23*F23</f>
         <v>0.4</v>
-      </c>
-      <c r="G23" s="58">
-        <f t="shared" ref="G23:G24" si="13">E23*F23</f>
-        <v>0.8</v>
       </c>
       <c r="H23" s="58">
         <f>D23*F23</f>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="M23" s="56"/>
     </row>
@@ -35617,11 +35636,11 @@
         <v>0.1</v>
       </c>
       <c r="G24" s="58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.4</v>
       </c>
       <c r="H24" s="58">
-        <f t="shared" ref="H24" si="14">D24*F24</f>
+        <f t="shared" ref="H24" si="13">D24*F24</f>
         <v>0.1</v>
       </c>
       <c r="K24" s="58" t="s">
@@ -35655,15 +35674,15 @@
         <v>904</v>
       </c>
       <c r="N25" s="58">
-        <f t="shared" ref="N25:P38" si="15">VLOOKUP(N$24,$B$11:$C$21,2,0)*$M25</f>
+        <f t="shared" ref="N25:P38" si="14">VLOOKUP(N$24,$B$11:$C$21,2,0)*$M25</f>
         <v>3525600</v>
       </c>
       <c r="O25" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>361.6</v>
       </c>
       <c r="P25" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>90.4</v>
       </c>
     </row>
@@ -35679,15 +35698,15 @@
         <v>499</v>
       </c>
       <c r="N26" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1946100</v>
       </c>
       <c r="O26" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>199.60000000000002</v>
       </c>
       <c r="P26" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>49.900000000000006</v>
       </c>
     </row>
@@ -35712,15 +35731,15 @@
         <v>514</v>
       </c>
       <c r="N27" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2004600</v>
       </c>
       <c r="O27" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>205.60000000000002</v>
       </c>
       <c r="P27" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>51.400000000000006</v>
       </c>
     </row>
@@ -35729,12 +35748,12 @@
         <v>1</v>
       </c>
       <c r="C28" s="58">
-        <f>SUMPRODUCT(D19:D22,H19:H22)</f>
-        <v>3900</v>
+        <f>SUMPRODUCT(D19:D21,H19:H21)</f>
+        <v>3600</v>
       </c>
       <c r="D28" s="58">
         <f>C28*$E$1</f>
-        <v>1497600</v>
+        <v>1382400</v>
       </c>
       <c r="K28" s="58">
         <v>4</v>
@@ -35747,15 +35766,15 @@
         <v>529</v>
       </c>
       <c r="N28" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2063100</v>
       </c>
       <c r="O28" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>211.60000000000002</v>
       </c>
       <c r="P28" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>52.900000000000006</v>
       </c>
     </row>
@@ -35764,12 +35783,12 @@
         <v>128</v>
       </c>
       <c r="C29" s="58">
-        <f>H23*D23</f>
-        <v>0.4</v>
+        <f>H22*D22</f>
+        <v>0.25</v>
       </c>
       <c r="D29" s="58">
         <f>C29*$E$1</f>
-        <v>153.60000000000002</v>
+        <v>96</v>
       </c>
       <c r="K29" s="58">
         <v>5</v>
@@ -35782,15 +35801,15 @@
         <v>584</v>
       </c>
       <c r="N29" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2277600</v>
       </c>
       <c r="O29" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>233.60000000000002</v>
       </c>
       <c r="P29" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>58.400000000000006</v>
       </c>
     </row>
@@ -35799,12 +35818,12 @@
         <v>161</v>
       </c>
       <c r="C30" s="58">
-        <f>H24*D24</f>
-        <v>0.1</v>
+        <f>H23*D23</f>
+        <v>0.2</v>
       </c>
       <c r="D30" s="58">
         <f>C30*$E$1</f>
-        <v>38.400000000000006</v>
+        <v>76.800000000000011</v>
       </c>
       <c r="K30" s="58">
         <v>6</v>
@@ -35817,19 +35836,30 @@
         <v>599</v>
       </c>
       <c r="N30" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2336100</v>
       </c>
       <c r="O30" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>239.60000000000002</v>
       </c>
       <c r="P30" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>59.900000000000006</v>
       </c>
     </row>
     <row r="31" spans="2:63" x14ac:dyDescent="0.35">
+      <c r="B31" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="58">
+        <f>H24*D24</f>
+        <v>0.1</v>
+      </c>
+      <c r="D31" s="58">
+        <f>C31*$E$1</f>
+        <v>38.400000000000006</v>
+      </c>
       <c r="K31" s="58">
         <v>7</v>
       </c>
@@ -35841,15 +35871,15 @@
         <v>634</v>
       </c>
       <c r="N31" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2472600</v>
       </c>
       <c r="O31" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>253.60000000000002</v>
       </c>
       <c r="P31" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>63.400000000000006</v>
       </c>
     </row>
@@ -35865,19 +35895,19 @@
         <v>1967</v>
       </c>
       <c r="N32" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>7671300</v>
       </c>
       <c r="O32" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>786.80000000000007</v>
       </c>
       <c r="P32" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>196.70000000000002</v>
       </c>
     </row>
-    <row r="33" spans="9:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.35">
       <c r="K33" s="58">
         <v>15</v>
       </c>
@@ -35889,19 +35919,26 @@
         <v>3490</v>
       </c>
       <c r="N33" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>13611000</v>
       </c>
       <c r="O33" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1396</v>
       </c>
       <c r="P33" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>349</v>
       </c>
     </row>
-    <row r="34" spans="9:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B34" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="F34" s="75">
+        <f>SUM(F36:F41)</f>
+        <v>0.99999999999999989</v>
+      </c>
       <c r="K34" s="58">
         <v>30</v>
       </c>
@@ -35913,19 +35950,40 @@
         <v>11155</v>
       </c>
       <c r="N34" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>43504500</v>
       </c>
       <c r="O34" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>4462</v>
       </c>
       <c r="P34" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1115.5</v>
       </c>
     </row>
-    <row r="35" spans="9:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B35" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35" s="58" t="s">
+        <v>120</v>
+      </c>
       <c r="K35" s="58">
         <v>60</v>
       </c>
@@ -35937,22 +35995,46 @@
         <v>23160</v>
       </c>
       <c r="N35" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>90324000</v>
       </c>
       <c r="O35" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>9264</v>
       </c>
       <c r="P35" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2316</v>
       </c>
       <c r="Q35" s="61"/>
       <c r="R35" s="61"/>
       <c r="S35" s="61"/>
     </row>
-    <row r="36" spans="9:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B36" s="58">
+        <v>1</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="58">
+        <v>4000</v>
+      </c>
+      <c r="E36" s="58">
+        <f>D36*VLOOKUP($C36,物品定价!$B:$D,3,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F36" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="G36" s="58">
+        <f t="shared" ref="G36:G38" si="15">E36*F36</f>
+        <v>0.8</v>
+      </c>
+      <c r="H36" s="58">
+        <f>1*F36</f>
+        <v>0.2</v>
+      </c>
       <c r="K36" s="58">
         <v>90</v>
       </c>
@@ -35964,19 +36046,44 @@
         <v>23830</v>
       </c>
       <c r="N36" s="58">
+        <f t="shared" si="14"/>
+        <v>92937000</v>
+      </c>
+      <c r="O36" s="58">
+        <f t="shared" si="14"/>
+        <v>9532</v>
+      </c>
+      <c r="P36" s="58">
+        <f t="shared" si="14"/>
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B37" s="58">
+        <v>2</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="58">
+        <f>D36*2</f>
+        <v>8000</v>
+      </c>
+      <c r="E37" s="58">
+        <f>D37*VLOOKUP($C37,物品定价!$B:$D,3,0)</f>
+        <v>8</v>
+      </c>
+      <c r="F37" s="60">
+        <v>0.15</v>
+      </c>
+      <c r="G37" s="58">
         <f t="shared" si="15"/>
-        <v>92937000</v>
-      </c>
-      <c r="O36" s="58">
-        <f t="shared" si="15"/>
-        <v>9532</v>
-      </c>
-      <c r="P36" s="58">
-        <f t="shared" si="15"/>
-        <v>2383</v>
-      </c>
-    </row>
-    <row r="37" spans="9:19" x14ac:dyDescent="0.35">
+        <v>1.2</v>
+      </c>
+      <c r="H37" s="58">
+        <f t="shared" ref="H37:H38" si="16">1*F37</f>
+        <v>0.15</v>
+      </c>
       <c r="K37" s="58">
         <v>120</v>
       </c>
@@ -35988,19 +36095,44 @@
         <v>24540</v>
       </c>
       <c r="N37" s="58">
+        <f t="shared" si="14"/>
+        <v>95706000</v>
+      </c>
+      <c r="O37" s="58">
+        <f t="shared" si="14"/>
+        <v>9816</v>
+      </c>
+      <c r="P37" s="58">
+        <f t="shared" si="14"/>
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B38" s="58">
+        <v>3</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="58">
+        <f t="shared" ref="D38" si="17">D37*2</f>
+        <v>16000</v>
+      </c>
+      <c r="E38" s="58">
+        <f>D38*VLOOKUP($C38,物品定价!$B:$D,3,0)</f>
+        <v>16</v>
+      </c>
+      <c r="F38" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="G38" s="58">
         <f t="shared" si="15"/>
-        <v>95706000</v>
-      </c>
-      <c r="O37" s="58">
-        <f t="shared" si="15"/>
-        <v>9816</v>
-      </c>
-      <c r="P37" s="58">
-        <f t="shared" si="15"/>
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="38" spans="9:19" x14ac:dyDescent="0.35">
+        <v>1.6</v>
+      </c>
+      <c r="H38" s="58">
+        <f t="shared" si="16"/>
+        <v>0.1</v>
+      </c>
       <c r="K38" s="58">
         <v>180</v>
       </c>
@@ -36012,23 +36144,97 @@
         <v>50520</v>
       </c>
       <c r="N38" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>197028000</v>
       </c>
       <c r="O38" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>20208</v>
       </c>
       <c r="P38" s="58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>5052</v>
       </c>
     </row>
-    <row r="39" spans="9:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B39" s="58">
+        <v>4</v>
+      </c>
+      <c r="C39" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="58">
+        <v>1</v>
+      </c>
+      <c r="E39" s="58">
+        <f>D39*VLOOKUP($C39,物品定价!$B:$D,3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F39" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="G39" s="58">
+        <f>E39*F39</f>
+        <v>0.25</v>
+      </c>
+      <c r="H39" s="58">
+        <f>1*F39</f>
+        <v>0.25</v>
+      </c>
       <c r="I39" s="61"/>
       <c r="J39" s="61"/>
     </row>
-    <row r="41" spans="9:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B40" s="58">
+        <v>5</v>
+      </c>
+      <c r="C40" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="58">
+        <v>1</v>
+      </c>
+      <c r="E40" s="58">
+        <f>D40*VLOOKUP($C40,物品定价!$B:$D,3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F40" s="60">
+        <v>0.2</v>
+      </c>
+      <c r="G40" s="58">
+        <f t="shared" ref="G40:G41" si="18">E40*F40</f>
+        <v>0.4</v>
+      </c>
+      <c r="H40" s="58">
+        <f>D40*F40</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B41" s="58">
+        <v>6</v>
+      </c>
+      <c r="C41" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="D41" s="58">
+        <v>1</v>
+      </c>
+      <c r="E41" s="58">
+        <f>D41*VLOOKUP($C41,物品定价!$B:$D,3,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F41" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="G41" s="58">
+        <f t="shared" si="18"/>
+        <v>0.4</v>
+      </c>
+      <c r="H41" s="58">
+        <f t="shared" ref="H41" si="19">D41*F41</f>
+        <v>0.1</v>
+      </c>
       <c r="K41" s="58" t="s">
         <v>9</v>
       </c>
@@ -36051,7 +36257,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="9:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.35">
       <c r="K42" s="58">
         <v>1</v>
       </c>
@@ -36073,7 +36279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="9:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.35">
       <c r="K43" s="58">
         <v>2</v>
       </c>
@@ -36085,7 +36291,7 @@
         <v>2000</v>
       </c>
       <c r="N43" s="58">
-        <f t="shared" ref="N43:N51" si="16">2^(K43-1)</f>
+        <f t="shared" ref="N43:N51" si="20">2^(K43-1)</f>
         <v>2</v>
       </c>
       <c r="O43" s="58"/>
@@ -36098,7 +36304,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="9:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B44" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="58" t="s">
+        <v>131</v>
+      </c>
       <c r="K44" s="58">
         <v>3</v>
       </c>
@@ -36106,24 +36321,35 @@
         <v>139</v>
       </c>
       <c r="M44" s="58">
-        <f t="shared" ref="M44:M91" si="17">2*M43</f>
+        <f t="shared" ref="M44:M91" si="21">2*M43</f>
         <v>4000</v>
       </c>
       <c r="N44" s="58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="O44" s="58"/>
       <c r="P44" s="59">
-        <f t="shared" ref="P44:P91" si="18">P43*2</f>
+        <f t="shared" ref="P44:P91" si="22">P43*2</f>
         <v>20</v>
       </c>
       <c r="Q44" s="59">
-        <f t="shared" ref="Q44:Q91" si="19">Q43*2</f>
+        <f t="shared" ref="Q44:Q91" si="23">Q43*2</f>
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="9:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B45" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="58">
+        <f>SUMPRODUCT(D36:D38,H36:H38)</f>
+        <v>3600</v>
+      </c>
+      <c r="D45" s="58">
+        <f>C45*$E$1</f>
+        <v>1382400</v>
+      </c>
       <c r="K45" s="58">
         <v>4</v>
       </c>
@@ -36131,24 +36357,35 @@
         <v>140</v>
       </c>
       <c r="M45" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8000</v>
       </c>
       <c r="N45" s="58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="O45" s="58"/>
       <c r="P45" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>40</v>
       </c>
       <c r="Q45" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="9:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B46" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="58">
+        <f>H39*D39</f>
+        <v>0.25</v>
+      </c>
+      <c r="D46" s="58">
+        <f>C46*$E$1</f>
+        <v>96</v>
+      </c>
       <c r="K46" s="58">
         <v>5</v>
       </c>
@@ -36156,24 +36393,35 @@
         <v>141</v>
       </c>
       <c r="M46" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>16000</v>
       </c>
       <c r="N46" s="58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="O46" s="58"/>
       <c r="P46" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>80</v>
       </c>
       <c r="Q46" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="9:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B47" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="58">
+        <f>H40*D40</f>
+        <v>0.2</v>
+      </c>
+      <c r="D47" s="58">
+        <f>C47*$E$1</f>
+        <v>76.800000000000011</v>
+      </c>
       <c r="K47" s="58">
         <v>6</v>
       </c>
@@ -36181,24 +36429,35 @@
         <v>142</v>
       </c>
       <c r="M47" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>32000</v>
       </c>
       <c r="N47" s="58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>32</v>
       </c>
       <c r="O47" s="58"/>
       <c r="P47" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>160</v>
       </c>
       <c r="Q47" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="9:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B48" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="58">
+        <f>H41*D41</f>
+        <v>0.1</v>
+      </c>
+      <c r="D48" s="58">
+        <f>C48*$E$1</f>
+        <v>38.400000000000006</v>
+      </c>
       <c r="K48" s="58">
         <v>7</v>
       </c>
@@ -36206,20 +36465,20 @@
         <v>143</v>
       </c>
       <c r="M48" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>64000</v>
       </c>
       <c r="N48" s="58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>64</v>
       </c>
       <c r="O48" s="58"/>
       <c r="P48" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>320</v>
       </c>
       <c r="Q48" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>64</v>
       </c>
     </row>
@@ -36231,20 +36490,20 @@
         <v>144</v>
       </c>
       <c r="M49" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>128000</v>
       </c>
       <c r="N49" s="58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>128</v>
       </c>
       <c r="O49" s="58"/>
       <c r="P49" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>640</v>
       </c>
       <c r="Q49" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>128</v>
       </c>
     </row>
@@ -36256,20 +36515,20 @@
         <v>145</v>
       </c>
       <c r="M50" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>256000</v>
       </c>
       <c r="N50" s="58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>256</v>
       </c>
       <c r="O50" s="58"/>
       <c r="P50" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1280</v>
       </c>
       <c r="Q50" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>256</v>
       </c>
     </row>
@@ -36281,20 +36540,20 @@
         <v>146</v>
       </c>
       <c r="M51" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>512000</v>
       </c>
       <c r="N51" s="58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>512</v>
       </c>
       <c r="O51" s="58"/>
       <c r="P51" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2560</v>
       </c>
       <c r="Q51" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>512</v>
       </c>
     </row>
@@ -36306,20 +36565,20 @@
         <v>201</v>
       </c>
       <c r="M52" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1024000</v>
       </c>
       <c r="N52" s="58">
-        <f t="shared" ref="N52:N86" si="20">2^(K52-1)</f>
+        <f t="shared" ref="N52:N86" si="24">2^(K52-1)</f>
         <v>1024</v>
       </c>
       <c r="O52" s="58"/>
       <c r="P52" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5120</v>
       </c>
       <c r="Q52" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1024</v>
       </c>
     </row>
@@ -36331,20 +36590,20 @@
         <v>202</v>
       </c>
       <c r="M53" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2048000</v>
       </c>
       <c r="N53" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2048</v>
       </c>
       <c r="O53" s="58"/>
       <c r="P53" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>10240</v>
       </c>
       <c r="Q53" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2048</v>
       </c>
       <c r="S53" s="61"/>
@@ -36357,20 +36616,20 @@
         <v>203</v>
       </c>
       <c r="M54" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4096000</v>
       </c>
       <c r="N54" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>4096</v>
       </c>
       <c r="O54" s="58"/>
       <c r="P54" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>20480</v>
       </c>
       <c r="Q54" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4096</v>
       </c>
       <c r="U54" s="61"/>
@@ -36385,20 +36644,20 @@
         <v>204</v>
       </c>
       <c r="M55" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8192000</v>
       </c>
       <c r="N55" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>8192</v>
       </c>
       <c r="O55" s="58"/>
       <c r="P55" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>40960</v>
       </c>
       <c r="Q55" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>8192</v>
       </c>
       <c r="U55" s="61"/>
@@ -36413,20 +36672,20 @@
         <v>205</v>
       </c>
       <c r="M56" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>16384000</v>
       </c>
       <c r="N56" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>16384</v>
       </c>
       <c r="O56" s="58"/>
       <c r="P56" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>81920</v>
       </c>
       <c r="Q56" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>16384</v>
       </c>
       <c r="U56" s="61"/>
@@ -36441,20 +36700,20 @@
         <v>206</v>
       </c>
       <c r="M57" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>32768000</v>
       </c>
       <c r="N57" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>32768</v>
       </c>
       <c r="O57" s="58"/>
       <c r="P57" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>163840</v>
       </c>
       <c r="Q57" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>32768</v>
       </c>
       <c r="U57" s="61"/>
@@ -36469,20 +36728,20 @@
         <v>207</v>
       </c>
       <c r="M58" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>65536000</v>
       </c>
       <c r="N58" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>65536</v>
       </c>
       <c r="O58" s="58"/>
       <c r="P58" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>327680</v>
       </c>
       <c r="Q58" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>65536</v>
       </c>
       <c r="U58" s="61"/>
@@ -36497,20 +36756,20 @@
         <v>208</v>
       </c>
       <c r="M59" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>131072000</v>
       </c>
       <c r="N59" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>131072</v>
       </c>
       <c r="O59" s="58"/>
       <c r="P59" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>655360</v>
       </c>
       <c r="Q59" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>131072</v>
       </c>
       <c r="U59" s="61"/>
@@ -36525,20 +36784,20 @@
         <v>209</v>
       </c>
       <c r="M60" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>262144000</v>
       </c>
       <c r="N60" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>262144</v>
       </c>
       <c r="O60" s="58"/>
       <c r="P60" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1310720</v>
       </c>
       <c r="Q60" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>262144</v>
       </c>
       <c r="U60" s="61"/>
@@ -36553,20 +36812,20 @@
         <v>210</v>
       </c>
       <c r="M61" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>524288000</v>
       </c>
       <c r="N61" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>524288</v>
       </c>
       <c r="O61" s="58"/>
       <c r="P61" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2621440</v>
       </c>
       <c r="Q61" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>524288</v>
       </c>
       <c r="U61" s="61"/>
@@ -36581,20 +36840,20 @@
         <v>211</v>
       </c>
       <c r="M62" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1048576000</v>
       </c>
       <c r="N62" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1048576</v>
       </c>
       <c r="O62" s="58"/>
       <c r="P62" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5242880</v>
       </c>
       <c r="Q62" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1048576</v>
       </c>
       <c r="U62" s="61"/>
@@ -36609,20 +36868,20 @@
         <v>212</v>
       </c>
       <c r="M63" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2097152000</v>
       </c>
       <c r="N63" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2097152</v>
       </c>
       <c r="O63" s="58"/>
       <c r="P63" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>10485760</v>
       </c>
       <c r="Q63" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2097152</v>
       </c>
       <c r="U63" s="61"/>
@@ -36637,20 +36896,20 @@
         <v>213</v>
       </c>
       <c r="M64" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4194304000</v>
       </c>
       <c r="N64" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>4194304</v>
       </c>
       <c r="O64" s="58"/>
       <c r="P64" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>20971520</v>
       </c>
       <c r="Q64" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4194304</v>
       </c>
       <c r="U64" s="61"/>
@@ -36665,20 +36924,20 @@
         <v>214</v>
       </c>
       <c r="M65" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8388608000</v>
       </c>
       <c r="N65" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>8388608</v>
       </c>
       <c r="O65" s="58"/>
       <c r="P65" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>41943040</v>
       </c>
       <c r="Q65" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>8388608</v>
       </c>
       <c r="U65" s="61"/>
@@ -36693,20 +36952,20 @@
         <v>215</v>
       </c>
       <c r="M66" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>16777216000</v>
       </c>
       <c r="N66" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>16777216</v>
       </c>
       <c r="O66" s="58"/>
       <c r="P66" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>83886080</v>
       </c>
       <c r="Q66" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>16777216</v>
       </c>
       <c r="U66" s="61"/>
@@ -36721,20 +36980,20 @@
         <v>216</v>
       </c>
       <c r="M67" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>33554432000</v>
       </c>
       <c r="N67" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>33554432</v>
       </c>
       <c r="O67" s="58"/>
       <c r="P67" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>167772160</v>
       </c>
       <c r="Q67" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>33554432</v>
       </c>
       <c r="U67" s="61"/>
@@ -36749,20 +37008,20 @@
         <v>217</v>
       </c>
       <c r="M68" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>67108864000</v>
       </c>
       <c r="N68" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>67108864</v>
       </c>
       <c r="O68" s="58"/>
       <c r="P68" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>335544320</v>
       </c>
       <c r="Q68" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>67108864</v>
       </c>
       <c r="U68" s="61"/>
@@ -36777,20 +37036,20 @@
         <v>218</v>
       </c>
       <c r="M69" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>134217728000</v>
       </c>
       <c r="N69" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>134217728</v>
       </c>
       <c r="O69" s="58"/>
       <c r="P69" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>671088640</v>
       </c>
       <c r="Q69" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>134217728</v>
       </c>
     </row>
@@ -36802,20 +37061,20 @@
         <v>219</v>
       </c>
       <c r="M70" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>268435456000</v>
       </c>
       <c r="N70" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>268435456</v>
       </c>
       <c r="O70" s="58"/>
       <c r="P70" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1342177280</v>
       </c>
       <c r="Q70" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>268435456</v>
       </c>
     </row>
@@ -36827,20 +37086,20 @@
         <v>220</v>
       </c>
       <c r="M71" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>536870912000</v>
       </c>
       <c r="N71" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>536870912</v>
       </c>
       <c r="O71" s="58"/>
       <c r="P71" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2684354560</v>
       </c>
       <c r="Q71" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>536870912</v>
       </c>
     </row>
@@ -36852,20 +37111,20 @@
         <v>221</v>
       </c>
       <c r="M72" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1073741824000</v>
       </c>
       <c r="N72" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1073741824</v>
       </c>
       <c r="O72" s="58"/>
       <c r="P72" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5368709120</v>
       </c>
       <c r="Q72" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1073741824</v>
       </c>
     </row>
@@ -36877,20 +37136,20 @@
         <v>222</v>
       </c>
       <c r="M73" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2147483648000</v>
       </c>
       <c r="N73" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2147483648</v>
       </c>
       <c r="O73" s="58"/>
       <c r="P73" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>10737418240</v>
       </c>
       <c r="Q73" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2147483648</v>
       </c>
     </row>
@@ -36902,20 +37161,20 @@
         <v>223</v>
       </c>
       <c r="M74" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4294967296000</v>
       </c>
       <c r="N74" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>4294967296</v>
       </c>
       <c r="O74" s="58"/>
       <c r="P74" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>21474836480</v>
       </c>
       <c r="Q74" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4294967296</v>
       </c>
     </row>
@@ -36927,20 +37186,20 @@
         <v>224</v>
       </c>
       <c r="M75" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8589934592000</v>
       </c>
       <c r="N75" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>8589934592</v>
       </c>
       <c r="O75" s="58"/>
       <c r="P75" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>42949672960</v>
       </c>
       <c r="Q75" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>8589934592</v>
       </c>
     </row>
@@ -36952,20 +37211,20 @@
         <v>225</v>
       </c>
       <c r="M76" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>17179869184000</v>
       </c>
       <c r="N76" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>17179869184</v>
       </c>
       <c r="O76" s="58"/>
       <c r="P76" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>85899345920</v>
       </c>
       <c r="Q76" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>17179869184</v>
       </c>
     </row>
@@ -36977,20 +37236,20 @@
         <v>226</v>
       </c>
       <c r="M77" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>34359738368000</v>
       </c>
       <c r="N77" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>34359738368</v>
       </c>
       <c r="O77" s="58"/>
       <c r="P77" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>171798691840</v>
       </c>
       <c r="Q77" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>34359738368</v>
       </c>
     </row>
@@ -37002,20 +37261,20 @@
         <v>227</v>
       </c>
       <c r="M78" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>68719476736000</v>
       </c>
       <c r="N78" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>68719476736</v>
       </c>
       <c r="O78" s="58"/>
       <c r="P78" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>343597383680</v>
       </c>
       <c r="Q78" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>68719476736</v>
       </c>
     </row>
@@ -37027,20 +37286,20 @@
         <v>228</v>
       </c>
       <c r="M79" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>137438953472000</v>
       </c>
       <c r="N79" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>137438953472</v>
       </c>
       <c r="O79" s="58"/>
       <c r="P79" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>687194767360</v>
       </c>
       <c r="Q79" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>137438953472</v>
       </c>
     </row>
@@ -37052,20 +37311,20 @@
         <v>229</v>
       </c>
       <c r="M80" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>274877906944000</v>
       </c>
       <c r="N80" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>274877906944</v>
       </c>
       <c r="O80" s="58"/>
       <c r="P80" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1374389534720</v>
       </c>
       <c r="Q80" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>274877906944</v>
       </c>
     </row>
@@ -37077,20 +37336,20 @@
         <v>230</v>
       </c>
       <c r="M81" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>549755813888000</v>
       </c>
       <c r="N81" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>549755813888</v>
       </c>
       <c r="O81" s="58"/>
       <c r="P81" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2748779069440</v>
       </c>
       <c r="Q81" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>549755813888</v>
       </c>
     </row>
@@ -37102,20 +37361,20 @@
         <v>231</v>
       </c>
       <c r="M82" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1099511627776000</v>
       </c>
       <c r="N82" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1099511627776</v>
       </c>
       <c r="O82" s="58"/>
       <c r="P82" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>5497558138880</v>
       </c>
       <c r="Q82" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1099511627776</v>
       </c>
     </row>
@@ -37127,20 +37386,20 @@
         <v>232</v>
       </c>
       <c r="M83" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2199023255552000</v>
       </c>
       <c r="N83" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2199023255552</v>
       </c>
       <c r="O83" s="58"/>
       <c r="P83" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>10995116277760</v>
       </c>
       <c r="Q83" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2199023255552</v>
       </c>
     </row>
@@ -37152,20 +37411,20 @@
         <v>233</v>
       </c>
       <c r="M84" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4398046511104000</v>
       </c>
       <c r="N84" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>4398046511104</v>
       </c>
       <c r="O84" s="58"/>
       <c r="P84" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>21990232555520</v>
       </c>
       <c r="Q84" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4398046511104</v>
       </c>
     </row>
@@ -37177,20 +37436,20 @@
         <v>234</v>
       </c>
       <c r="M85" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8796093022208000</v>
       </c>
       <c r="N85" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>8796093022208</v>
       </c>
       <c r="O85" s="58"/>
       <c r="P85" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>43980465111040</v>
       </c>
       <c r="Q85" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>8796093022208</v>
       </c>
     </row>
@@ -37202,20 +37461,20 @@
         <v>235</v>
       </c>
       <c r="M86" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.7592186044416E+16</v>
       </c>
       <c r="N86" s="58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>17592186044416</v>
       </c>
       <c r="O86" s="58"/>
       <c r="P86" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>87960930222080</v>
       </c>
       <c r="Q86" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>17592186044416</v>
       </c>
     </row>
@@ -37227,20 +37486,20 @@
         <v>236</v>
       </c>
       <c r="M87" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3.5184372088832E+16</v>
       </c>
       <c r="N87" s="58">
-        <f t="shared" ref="N87:N91" si="21">2^(K87-1)</f>
+        <f t="shared" ref="N87:N91" si="25">2^(K87-1)</f>
         <v>35184372088832</v>
       </c>
       <c r="O87" s="58"/>
       <c r="P87" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>175921860444160</v>
       </c>
       <c r="Q87" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>35184372088832</v>
       </c>
     </row>
@@ -37252,20 +37511,20 @@
         <v>237</v>
       </c>
       <c r="M88" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7.0368744177664E+16</v>
       </c>
       <c r="N88" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>70368744177664</v>
       </c>
       <c r="O88" s="58"/>
       <c r="P88" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>351843720888320</v>
       </c>
       <c r="Q88" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>70368744177664</v>
       </c>
     </row>
@@ -37277,20 +37536,20 @@
         <v>238</v>
       </c>
       <c r="M89" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1.40737488355328E+17</v>
       </c>
       <c r="N89" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>140737488355328</v>
       </c>
       <c r="O89" s="58"/>
       <c r="P89" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>703687441776640</v>
       </c>
       <c r="Q89" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>140737488355328</v>
       </c>
     </row>
@@ -37302,20 +37561,20 @@
         <v>239</v>
       </c>
       <c r="M90" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2.81474976710656E+17</v>
       </c>
       <c r="N90" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>281474976710656</v>
       </c>
       <c r="O90" s="58"/>
       <c r="P90" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1407374883553280</v>
       </c>
       <c r="Q90" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>281474976710656</v>
       </c>
     </row>
@@ -37327,20 +37586,20 @@
         <v>240</v>
       </c>
       <c r="M91" s="58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5.62949953421312E+17</v>
       </c>
       <c r="N91" s="58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>562949953421312</v>
       </c>
       <c r="O91" s="58"/>
       <c r="P91" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2814749767106560</v>
       </c>
       <c r="Q91" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>562949953421312</v>
       </c>
     </row>
